--- a/2025-10-19/19_combined_confidence.xlsx
+++ b/2025-10-19/19_combined_confidence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FC Midtjylland  - Vejle Boldklub: 17:00</t>
+          <t>FC Midtjylland ✓ - Vejle Boldklub: 5:1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -491,12 +491,16 @@
       <c r="F2" t="n">
         <v>1.35</v>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Getafe CF - Real Madrid : 20:00</t>
+          <t>Getafe CF - Real Madrid ✓: 0:1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -516,7 +520,11 @@
       <c r="F3" t="n">
         <v>1.48</v>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -550,48 +558,79 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Red Star Belgrade  - FK IMT Belgrad: 18:30</t>
+          <t>1.FC Slovacko - AC Sparta Prague : 0:0</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Red Star Belgrade</t>
+          <t>AC Sparta Prague</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>59</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>94</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D5" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>1.68</v>
+        <v>1.36</v>
       </c>
       <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fenerbahce  - Fatih Karagümrük: 18:00</t>
+          <t>Red Star Belgrade ✓ - FK IMT Belgrad: 6:1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Red Star Belgrade</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>59</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>94</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Fenerbahce ✓ - Fatih Karagümrük: 2:1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>59</v>
+      </c>
+      <c r="D7" t="n">
         <v>100</v>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
         <v>1.2</v>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
